--- a/spine_projects/01_input_data/01_input_raw/inestment_cost_overview/investment_cost_overview.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/inestment_cost_overview/investment_cost_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\inestment_cost_overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC2F233-0591-451B-981C-A411250F41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBF578-170E-4455-A38A-112C24EF4828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B319F6F4-5B26-4633-9938-205A8FCCCA95}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{B319F6F4-5B26-4633-9938-205A8FCCCA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Investment_Cost" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>PV_plant</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Methanol storage</t>
   </si>
   <si>
-    <t>Steam_Plant</t>
-  </si>
-  <si>
     <t>Hydrogen storage</t>
   </si>
   <si>
@@ -63,19 +60,28 @@
     <t>Methanol_Plant</t>
   </si>
   <si>
-    <t>Investment_Cost [Euro/MW or MWh]</t>
-  </si>
-  <si>
     <t>Data taken from the date_needed_overview file</t>
   </si>
   <si>
     <t>Electrolyzer AEC</t>
+  </si>
+  <si>
+    <t>Investment_Cost [Euro/MW or MWh] Value 2020</t>
+  </si>
+  <si>
+    <t>Electrolyzer SOEC</t>
+  </si>
+  <si>
+    <t>Electric_Steam_Boiler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,9 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,93 +460,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FABD746-4A8E-4371-B5EF-19107F5A398A}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="6" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="3">
+        <v>560000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>560000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>320000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>875000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>675000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>950000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>725000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2075000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>500000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1090000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>960000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>870000</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>150000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>145000.00000000003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>1.3958682300390843E-4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.3958682300390843E-4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.3958682300390843E-4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.3958682300390843E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.3958682300390843E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.17049999999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -552,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/spine_projects/01_input_data/01_input_raw/inestment_cost_overview/investment_cost_overview.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/inestment_cost_overview/investment_cost_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\inestment_cost_overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBF578-170E-4455-A38A-112C24EF4828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB54C6-74C1-4119-9ED3-44BA168EF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{B319F6F4-5B26-4633-9938-205A8FCCCA95}"/>
   </bookViews>
@@ -42,18 +42,9 @@
     <t>PV_plant</t>
   </si>
   <si>
-    <t>Electrolyzer PEM</t>
-  </si>
-  <si>
     <t>CO2_Vaporizer</t>
   </si>
   <si>
-    <t>Methanol storage</t>
-  </si>
-  <si>
-    <t>Hydrogen storage</t>
-  </si>
-  <si>
     <t>Object_type</t>
   </si>
   <si>
@@ -63,16 +54,25 @@
     <t>Data taken from the date_needed_overview file</t>
   </si>
   <si>
-    <t>Electrolyzer AEC</t>
-  </si>
-  <si>
     <t>Investment_Cost [Euro/MW or MWh] Value 2020</t>
   </si>
   <si>
-    <t>Electrolyzer SOEC</t>
-  </si>
-  <si>
     <t>Electric_Steam_Boiler</t>
+  </si>
+  <si>
+    <t>Electrolyzer_AEC</t>
+  </si>
+  <si>
+    <t>Electrolyzer_PEM</t>
+  </si>
+  <si>
+    <t>Electrolyzer_SOEC</t>
+  </si>
+  <si>
+    <t>Methanol_storage</t>
+  </si>
+  <si>
+    <t>Hydrogen_storage</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,22 +475,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -515,7 +515,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>1900000</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>1900000</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>2900000</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>500000</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>1350000</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>150000</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>1.3958682300390843E-4</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>0.121</v>
@@ -692,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
